--- a/03. Satprokar Work/01. Satprokar Primary Work/Summary-01.xlsx
+++ b/03. Satprokar Work/01. Satprokar Primary Work/Summary-01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\03. সাত প্রকার\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. Official\03. Satprokar Work\01. Satprokar Primary Work\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
   <si>
     <t>MV. LOTUS LEADER</t>
   </si>
@@ -80,23 +80,35 @@
     <t>A/D</t>
   </si>
   <si>
-    <t>2024/447</t>
-  </si>
-  <si>
-    <t>2024/465</t>
-  </si>
-  <si>
     <t>TOTAL=</t>
   </si>
   <si>
     <t>CLOSING</t>
+  </si>
+  <si>
+    <t>2024/545</t>
+  </si>
+  <si>
+    <t>2024/563</t>
+  </si>
+  <si>
+    <t>MV. SUNNY MARK (30/06/2024)</t>
+  </si>
+  <si>
+    <t>MV. BBC RUSH MORE (20/07/2024)</t>
+  </si>
+  <si>
+    <t>MV. JIAN HUA QING (02/07/2024)</t>
+  </si>
+  <si>
+    <t>MV. ANKA BLUE (15/07/2024)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +135,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +255,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -274,6 +299,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -295,12 +353,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,32 +371,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,42 +671,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.140625" style="1"/>
-    <col min="4" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24">
-        <v>45444</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="A1" s="33">
+        <v>45474</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
@@ -681,91 +725,91 @@
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="33">
-        <v>45447</v>
+      <c r="B4" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="15">
+        <v>45483</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1">
-        <v>330</v>
+        <v>795</v>
       </c>
       <c r="H4" s="1">
-        <v>456</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>2</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35">
-        <v>45454</v>
+      <c r="B5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="16">
+        <v>45490</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G5" s="8">
-        <v>519</v>
+        <v>554</v>
       </c>
       <c r="H5" s="8">
-        <v>722</v>
+        <v>769</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
       <c r="G6" s="1">
         <f>SUM(G4:G5)</f>
-        <v>849</v>
+        <v>1349</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(H4:H5)</f>
-        <v>1178</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17" t="s">
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="19"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
@@ -798,127 +842,127 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B12" s="4">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C12" s="6">
-        <v>138</v>
+        <v>291</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E12" s="4">
-        <v>100</v>
+        <v>180</v>
       </c>
       <c r="F12" s="6">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12" s="4">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="I12" s="6">
-        <v>90</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="4">
+        <v>150</v>
+      </c>
+      <c r="C13" s="6">
+        <v>197</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4">
+        <v>150</v>
+      </c>
+      <c r="F13" s="6">
+        <v>213</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4">
+        <v>80</v>
+      </c>
+      <c r="I13" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="21">
+        <f>SUM(B12:B13)</f>
+        <v>340</v>
+      </c>
+      <c r="C14" s="22">
+        <f>SUM(C12:C13)</f>
+        <v>488</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="21">
+        <f>SUM(E12:E13)</f>
+        <v>330</v>
+      </c>
+      <c r="F14" s="22">
+        <f>SUM(F12:F13)</f>
+        <v>485</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="21">
+        <f>SUM(H12:H13)</f>
+        <v>239</v>
+      </c>
+      <c r="I14" s="22">
+        <f>SUM(I12:I13)</f>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="4">
-        <v>125</v>
-      </c>
-      <c r="C13" s="6">
-        <v>174</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="B15" s="18">
+        <v>460730</v>
+      </c>
+      <c r="C15" s="19">
+        <f>SUM(B15/1000)</f>
+        <v>460.73</v>
+      </c>
+      <c r="D15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="4">
-        <v>124</v>
-      </c>
-      <c r="F13" s="6">
-        <v>172</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E15" s="18">
+        <v>431810</v>
+      </c>
+      <c r="F15" s="19">
+        <f>SUM(E15/1000)</f>
+        <v>431.81</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="4">
-        <v>90</v>
-      </c>
-      <c r="I13" s="6">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="4">
-        <f>SUM(B12:B13)</f>
-        <v>225</v>
-      </c>
-      <c r="C14" s="6">
-        <f>SUM(C12:C13)</f>
-        <v>312</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="4">
-        <f>SUM(E12:E13)</f>
-        <v>224</v>
-      </c>
-      <c r="F14" s="6">
-        <f>SUM(F12:F13)</f>
-        <v>310</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="4">
-        <f>SUM(H12:H13)</f>
-        <v>155</v>
-      </c>
-      <c r="I14" s="6">
-        <f>SUM(I12:I13)</f>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="37">
-        <v>308110</v>
-      </c>
-      <c r="C15" s="38">
-        <f>SUM(B15/1000)</f>
-        <v>308.11</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="37">
-        <v>265690</v>
-      </c>
-      <c r="F15" s="38">
-        <f>SUM(E15/1000)</f>
-        <v>265.69</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="37">
-        <v>191203</v>
-      </c>
-      <c r="I15" s="38">
+      <c r="H15" s="18">
+        <v>252873</v>
+      </c>
+      <c r="I15" s="19">
         <f>SUM(H15/1000)</f>
-        <v>191.203</v>
+        <v>252.87299999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -955,21 +999,21 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="26" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="26" t="s">
+      <c r="E19" s="36"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="27"/>
-      <c r="I19" s="28"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
@@ -1002,115 +1046,127 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="C21" s="6">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E21" s="4">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="F21" s="6">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" s="4">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="I21" s="6">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>84</v>
+      </c>
+      <c r="C22" s="6">
+        <v>105</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="4">
+        <v>50</v>
+      </c>
+      <c r="F22" s="6">
+        <v>80</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="4">
+        <v>40</v>
+      </c>
+      <c r="I22" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="24">
+        <f>SUM(B21:B22)</f>
+        <v>239</v>
+      </c>
+      <c r="C23" s="25">
+        <f>SUM(C21:C22)</f>
+        <v>300</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="24">
+        <f>SUM(E21:E22)</f>
+        <v>111</v>
+      </c>
+      <c r="F23" s="25">
+        <f>SUM(F21:F22)</f>
+        <v>171</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" s="24">
+        <f>SUM(H21:H22)</f>
+        <v>90</v>
+      </c>
+      <c r="I23" s="25">
+        <f>SUM(I21:I22)</f>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
-        <v>90</v>
-      </c>
-      <c r="C22" s="6">
-        <v>125</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="8">
-        <f>SUM(B21:B22)</f>
-        <v>155</v>
-      </c>
-      <c r="C23" s="9">
-        <f>SUM(C21:C22)</f>
-        <v>215</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="8">
-        <f>SUM(E21:E22)</f>
-        <v>45</v>
-      </c>
-      <c r="F23" s="9">
-        <f>SUM(F21:F22)</f>
-        <v>63</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="8">
-        <f>SUM(H21:H22)</f>
-        <v>45</v>
-      </c>
-      <c r="I23" s="9">
-        <f>SUM(I21:I22)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="37">
-        <v>168515</v>
-      </c>
-      <c r="C24" s="38">
+      <c r="B24" s="18">
+        <v>253135</v>
+      </c>
+      <c r="C24" s="19">
         <f>SUM(B24/1000)</f>
-        <v>168.51499999999999</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="37">
-        <v>680520</v>
-      </c>
-      <c r="F24" s="38">
+        <v>253.13499999999999</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="18">
+        <v>665900</v>
+      </c>
+      <c r="F24" s="19">
         <f>SUM(E24/1000)</f>
-        <v>680.52</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="H24" s="37">
-        <v>194940</v>
-      </c>
-      <c r="I24" s="38">
+        <v>665.9</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="18">
+        <v>223820</v>
+      </c>
+      <c r="I24" s="19">
         <f>SUM(H24/1000)</f>
-        <v>194.94</v>
+        <v>223.82</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -1125,93 +1181,109 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B28" s="1">
         <f>SUM(B14+E14+H14+B23+E23+H23)</f>
-        <v>849</v>
+        <v>1349</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="1">
         <f>SUM(C14+F14+I14+C23+F23+I23)</f>
-        <v>1178</v>
+        <v>1893</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="19"/>
-      <c r="F31" s="17" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="F31" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="19"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="30"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
       <c r="I32" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="6"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="6"/>
+      <c r="A33" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="6">
+        <v>505</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="6">
+        <v>1288</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="6"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="6"/>
+      <c r="A34" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="6">
+        <v>14</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="6">
+        <v>1758</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="9">
         <f>SUM(D33:D34)</f>
-        <v>0</v>
-      </c>
-      <c r="F35" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F35" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="9">
         <f>SUM(I33:I34)</f>
-        <v>0</v>
+        <v>3046</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1311,7 @@
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="A35:C35"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/03. Satprokar Work/01. Satprokar Primary Work/Summary-01.xlsx
+++ b/03. Satprokar Work/01. Satprokar Primary Work/Summary-01.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="26">
-  <si>
-    <t>MV. LOTUS LEADER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
   <si>
     <t>MV. MALAYSIA STAR</t>
   </si>
@@ -86,22 +83,16 @@
     <t>CLOSING</t>
   </si>
   <si>
-    <t>2024/545</t>
-  </si>
-  <si>
-    <t>2024/563</t>
-  </si>
-  <si>
-    <t>MV. SUNNY MARK (30/06/2024)</t>
-  </si>
-  <si>
-    <t>MV. BBC RUSH MORE (20/07/2024)</t>
-  </si>
-  <si>
-    <t>MV. JIAN HUA QING (02/07/2024)</t>
-  </si>
-  <si>
-    <t>MV. ANKA BLUE (15/07/2024)</t>
+    <t>2024/600</t>
+  </si>
+  <si>
+    <t>MV. S.T MARIA (30/07/2024)</t>
+  </si>
+  <si>
+    <t>MV. CHL APOLLO (05/08/2024)</t>
+  </si>
+  <si>
+    <t>OPENING</t>
   </si>
 </sst>
 </file>
@@ -157,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -251,11 +242,105 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -305,32 +390,86 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -338,50 +477,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -669,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,294 +787,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33">
-        <v>45474</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
+      <c r="A1" s="31">
+        <v>45505</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="15">
-        <v>45483</v>
+        <v>45512</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
-        <v>795</v>
+        <v>755</v>
       </c>
       <c r="H4" s="1">
-        <v>1124</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="16">
-        <v>45490</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8">
-        <v>554</v>
-      </c>
-      <c r="H5" s="8">
-        <v>769</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
+      <c r="A6" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="G6" s="1">
         <f>SUM(G4:G5)</f>
-        <v>1349</v>
+        <v>755</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(H4:H5)</f>
-        <v>1893</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
+      <c r="A9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="28" t="s">
+      <c r="E10" s="34"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="29"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="D11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="14" t="s">
-        <v>6</v>
-      </c>
       <c r="G11" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="14" t="s">
         <v>5</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C12" s="6">
-        <v>291</v>
+        <v>250</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="4">
+        <v>120</v>
+      </c>
+      <c r="F12" s="6">
+        <v>177</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="4">
+        <v>150</v>
+      </c>
+      <c r="I12" s="6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18">
+        <f>SUM(B12:B13)</f>
         <v>180</v>
       </c>
-      <c r="F12" s="6">
-        <v>272</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="4">
-        <v>159</v>
-      </c>
-      <c r="I12" s="6">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="C14" s="19">
+        <f>SUM(C12:C13)</f>
+        <v>250</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="18">
+        <f>SUM(E12:E13)</f>
+        <v>120</v>
+      </c>
+      <c r="F14" s="19">
+        <f>SUM(F12:F13)</f>
+        <v>177</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="18">
+        <f>SUM(H12:H13)</f>
         <v>150</v>
       </c>
-      <c r="C13" s="6">
-        <v>197</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4">
-        <v>150</v>
-      </c>
-      <c r="F13" s="6">
-        <v>213</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="4">
-        <v>80</v>
-      </c>
-      <c r="I13" s="6">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="21">
-        <f>SUM(B12:B13)</f>
-        <v>340</v>
-      </c>
-      <c r="C14" s="22">
-        <f>SUM(C12:C13)</f>
-        <v>488</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="21">
-        <f>SUM(E12:E13)</f>
-        <v>330</v>
-      </c>
-      <c r="F14" s="22">
-        <f>SUM(F12:F13)</f>
-        <v>485</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="21">
-        <f>SUM(H12:H13)</f>
-        <v>239</v>
-      </c>
-      <c r="I14" s="22">
+      <c r="I14" s="19">
         <f>SUM(I12:I13)</f>
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="18">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="24">
+        <v>312570</v>
+      </c>
+      <c r="C15" s="25">
+        <f>SUM(B15/1000)</f>
+        <v>312.57</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="24">
+        <v>222860</v>
+      </c>
+      <c r="F15" s="25">
+        <f>SUM(E15/1000)</f>
+        <v>222.86</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="24">
+        <v>171173</v>
+      </c>
+      <c r="I15" s="25">
+        <f>SUM(H15/1000)</f>
+        <v>171.173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="27">
         <v>460730</v>
       </c>
-      <c r="C15" s="19">
-        <f>SUM(B15/1000)</f>
+      <c r="C16" s="28">
+        <f>SUM(B16/1000)</f>
         <v>460.73</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="18">
+      <c r="D16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="27">
         <v>431810</v>
       </c>
-      <c r="F15" s="19">
-        <f>SUM(E15/1000)</f>
+      <c r="F16" s="28">
+        <f>SUM(E16/1000)</f>
         <v>431.81</v>
       </c>
-      <c r="G15" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="G16" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="27">
         <v>252873</v>
       </c>
-      <c r="I15" s="19">
-        <f>SUM(H15/1000)</f>
+      <c r="I16" s="30">
+        <f>SUM(H16/1000)</f>
         <v>252.87299999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
@@ -988,328 +1079,340 @@
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="35" t="s">
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="36"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="35" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="12" t="s">
+      <c r="D21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="12" t="s">
+      <c r="G21" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="I21" s="14" t="s">
         <v>5</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>155</v>
-      </c>
-      <c r="C21" s="6">
-        <v>195</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="4">
-        <v>61</v>
-      </c>
-      <c r="F21" s="6">
-        <v>91</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="4">
-        <v>50</v>
-      </c>
-      <c r="I21" s="6">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="4">
+        <v>122</v>
+      </c>
+      <c r="C22" s="6">
+        <v>157</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4">
+        <v>98</v>
+      </c>
+      <c r="F22" s="6">
+        <v>165</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="4">
+        <v>85</v>
+      </c>
+      <c r="I22" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="21">
+        <f>SUM(B22:B23)</f>
+        <v>122</v>
+      </c>
+      <c r="C24" s="22">
+        <f>SUM(C22:C23)</f>
+        <v>157</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="21">
+        <f>SUM(E22:E23)</f>
+        <v>98</v>
+      </c>
+      <c r="F24" s="22">
+        <f>SUM(F22:F23)</f>
+        <v>165</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H24" s="21">
+        <f>SUM(H22:H23)</f>
+        <v>85</v>
+      </c>
+      <c r="I24" s="22">
+        <f>SUM(I22:I23)</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="24">
+        <v>167795</v>
+      </c>
+      <c r="C25" s="25">
+        <f>SUM(B25/1000)</f>
+        <v>167.79499999999999</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="24">
+        <v>638700</v>
+      </c>
+      <c r="F25" s="25">
+        <f>SUM(E25/1000)</f>
+        <v>638.70000000000005</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" s="24">
+        <v>214660</v>
+      </c>
+      <c r="I25" s="25">
+        <f>SUM(H25/1000)</f>
+        <v>214.66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="27">
+        <v>253135</v>
+      </c>
+      <c r="C26" s="28">
+        <f>SUM(B26/1000)</f>
+        <v>253.13499999999999</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="27">
+        <v>665900</v>
+      </c>
+      <c r="F26" s="28">
+        <f>SUM(E26/1000)</f>
+        <v>665.9</v>
+      </c>
+      <c r="G26" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="27">
+        <v>223820</v>
+      </c>
+      <c r="I26" s="30">
+        <f>SUM(H26/1000)</f>
+        <v>223.82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="G27" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <f>SUM(B14+E14+H14+B24+E24+H24)</f>
+        <v>755</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <f>SUM(C14+F14+I14+C24+F24+I24)</f>
+        <v>1084</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="35"/>
+      <c r="F32" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="35"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="6">
+        <v>162</v>
+      </c>
+      <c r="F34" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
-        <v>84</v>
-      </c>
-      <c r="C22" s="6">
-        <v>105</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4">
-        <v>50</v>
-      </c>
-      <c r="F22" s="6">
-        <v>80</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="4">
-        <v>40</v>
-      </c>
-      <c r="I22" s="6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="24">
-        <f>SUM(B21:B22)</f>
-        <v>239</v>
-      </c>
-      <c r="C23" s="25">
-        <f>SUM(C21:C22)</f>
-        <v>300</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="24">
-        <f>SUM(E21:E22)</f>
-        <v>111</v>
-      </c>
-      <c r="F23" s="25">
-        <f>SUM(F21:F22)</f>
-        <v>171</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="24">
-        <f>SUM(H21:H22)</f>
-        <v>90</v>
-      </c>
-      <c r="I23" s="25">
-        <f>SUM(I21:I22)</f>
-        <v>137</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="18">
-        <v>253135</v>
-      </c>
-      <c r="C24" s="19">
-        <f>SUM(B24/1000)</f>
-        <v>253.13499999999999</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="18">
-        <v>665900</v>
-      </c>
-      <c r="F24" s="19">
-        <f>SUM(E24/1000)</f>
-        <v>665.9</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="18">
-        <v>223820</v>
-      </c>
-      <c r="I24" s="19">
-        <f>SUM(H24/1000)</f>
-        <v>223.82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B28" s="1">
-        <f>SUM(B14+E14+H14+B23+E23+H23)</f>
-        <v>1349</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="1">
-        <f>SUM(C14+F14+I14+C23+F23+I23)</f>
-        <v>1893</v>
-      </c>
-      <c r="E28" s="1" t="s">
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="6">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="44" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="F31" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="14" t="s">
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="9">
+        <f>SUM(D34:D35)</f>
+        <v>162</v>
+      </c>
+      <c r="F36" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F32" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="6">
-        <v>505</v>
-      </c>
-      <c r="F33" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
-      <c r="I33" s="6">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="6">
-        <v>14</v>
-      </c>
-      <c r="F34" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="6">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="9">
-        <f>SUM(D33:D34)</f>
-        <v>519</v>
-      </c>
-      <c r="F35" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="9">
-        <f>SUM(I33:I34)</f>
-        <v>3046</v>
+      <c r="G36" s="45"/>
+      <c r="H36" s="45"/>
+      <c r="I36" s="9">
+        <f>SUM(I34:I35)</f>
+        <v>1883</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="A9:I9"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/03. Satprokar Work/01. Satprokar Primary Work/Summary-01.xlsx
+++ b/03. Satprokar Work/01. Satprokar Primary Work/Summary-01.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="27">
   <si>
     <t>MV. MALAYSIA STAR</t>
   </si>
@@ -83,16 +83,28 @@
     <t>CLOSING</t>
   </si>
   <si>
-    <t>2024/600</t>
-  </si>
-  <si>
-    <t>MV. S.T MARIA (30/07/2024)</t>
-  </si>
-  <si>
-    <t>MV. CHL APOLLO (05/08/2024)</t>
-  </si>
-  <si>
     <t>OPENING</t>
+  </si>
+  <si>
+    <t>MV. LOTUS LEADER</t>
+  </si>
+  <si>
+    <t>2024/657</t>
+  </si>
+  <si>
+    <t>2024/659</t>
+  </si>
+  <si>
+    <t>2024/708</t>
+  </si>
+  <si>
+    <t>MV. HIBARINO (14/09/2024)</t>
+  </si>
+  <si>
+    <t>MV. ANKA SKY (24/09/2024)</t>
+  </si>
+  <si>
+    <t>MV. WINDS (21/09/2024)</t>
   </si>
 </sst>
 </file>
@@ -340,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -369,82 +381,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -462,32 +498,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -769,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -787,632 +802,810 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="31">
-        <v>45505</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
+      <c r="A1" s="42">
+        <v>45536</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="15">
-        <v>45512</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="32">
+        <v>45535</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>21</v>
       </c>
       <c r="G4" s="1">
-        <v>755</v>
+        <v>824</v>
       </c>
       <c r="H4" s="1">
-        <v>1084</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="32">
+        <v>45536</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1">
+        <v>591</v>
+      </c>
+      <c r="H5" s="1">
+        <v>842</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="14">
+        <v>45552</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1">
+        <v>487</v>
+      </c>
+      <c r="H6" s="1">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="G6" s="1">
-        <f>SUM(G4:G5)</f>
-        <v>755</v>
-      </c>
-      <c r="H6" s="1">
-        <f>SUM(H4:H5)</f>
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="G8" s="1">
+        <f>SUM(G4:G7)</f>
+        <v>1902</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SUM(H4:H7)</f>
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="33" t="s">
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="33" t="s">
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="H12" s="36"/>
+      <c r="I12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="4">
-        <v>180</v>
-      </c>
-      <c r="C12" s="6">
-        <v>250</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <v>124</v>
+      </c>
+      <c r="C14" s="6">
+        <v>178</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4">
+        <v>350</v>
+      </c>
+      <c r="F14" s="6">
+        <v>487</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4">
+        <v>150</v>
+      </c>
+      <c r="I14" s="6">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4">
         <v>120</v>
       </c>
-      <c r="F12" s="6">
-        <v>177</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="4">
-        <v>150</v>
-      </c>
-      <c r="I12" s="6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18">
-        <f>SUM(B12:B13)</f>
-        <v>180</v>
-      </c>
-      <c r="C14" s="19">
-        <f>SUM(C12:C13)</f>
-        <v>250</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="18">
-        <f>SUM(E12:E13)</f>
-        <v>120</v>
-      </c>
-      <c r="F14" s="19">
-        <f>SUM(F12:F13)</f>
-        <v>177</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="H14" s="18">
-        <f>SUM(H12:H13)</f>
-        <v>150</v>
-      </c>
-      <c r="I14" s="19">
-        <f>SUM(I12:I13)</f>
-        <v>196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="24">
-        <v>312570</v>
-      </c>
-      <c r="C15" s="25">
-        <f>SUM(B15/1000)</f>
-        <v>312.57</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="24">
-        <v>222860</v>
-      </c>
-      <c r="F15" s="25">
-        <f>SUM(E15/1000)</f>
-        <v>222.86</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="24">
-        <v>171173</v>
-      </c>
-      <c r="I15" s="25">
-        <f>SUM(H15/1000)</f>
-        <v>171.173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+      <c r="C15" s="6">
+        <v>165</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="27">
-        <v>460730</v>
-      </c>
-      <c r="C16" s="28">
-        <f>SUM(B16/1000)</f>
-        <v>460.73</v>
-      </c>
-      <c r="D16" s="29" t="s">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="27">
-        <v>431810</v>
-      </c>
-      <c r="F16" s="28">
-        <f>SUM(E16/1000)</f>
-        <v>431.81</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="27">
-        <v>252873</v>
-      </c>
-      <c r="I16" s="30">
-        <f>SUM(H16/1000)</f>
-        <v>252.87299999999999</v>
+      <c r="H15" s="4">
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4">
+        <v>127</v>
+      </c>
+      <c r="C16" s="6">
+        <v>187</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4">
+        <v>90</v>
+      </c>
+      <c r="F16" s="6">
+        <v>119</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="4">
+        <v>100</v>
+      </c>
+      <c r="I16" s="6">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="5"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="5"/>
       <c r="H17" s="4"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
+      <c r="A18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="17">
+        <f>SUM(B14:B17)</f>
+        <v>371</v>
+      </c>
+      <c r="C18" s="18">
+        <f>SUM(C14:C17)</f>
+        <v>530</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="17">
+        <f>SUM(E14:E17)</f>
+        <v>440</v>
+      </c>
+      <c r="F18" s="18">
+        <f>SUM(F14:F17)</f>
+        <v>606</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="17">
+        <f>SUM(H14:H17)</f>
+        <v>250</v>
+      </c>
+      <c r="I18" s="18">
+        <f>SUM(I14:I17)</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="23">
+        <v>365580</v>
+      </c>
+      <c r="C19" s="24">
+        <f>SUM(B19/1000)</f>
+        <v>365.58</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="23">
+        <v>338480</v>
+      </c>
+      <c r="F19" s="24">
+        <f>SUM(E19/1000)</f>
+        <v>338.48</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="23">
+        <v>196973</v>
+      </c>
+      <c r="I19" s="24">
+        <f>SUM(H19/1000)</f>
+        <v>196.97300000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="26">
+        <v>312570</v>
+      </c>
+      <c r="C20" s="27">
+        <f>SUM(B20/1000)</f>
+        <v>312.57</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="26">
+        <v>222860</v>
+      </c>
+      <c r="F20" s="27">
+        <f>SUM(E20/1000)</f>
+        <v>222.86</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="26">
+        <v>171173</v>
+      </c>
+      <c r="I20" s="29">
+        <f>SUM(H20/1000)</f>
+        <v>171.173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="36" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="36" t="s">
+      <c r="E24" s="45"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F25" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="14" t="s">
+      <c r="I25" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="4">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="4">
+        <v>200</v>
+      </c>
+      <c r="I26" s="6">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="4">
+        <v>180</v>
+      </c>
+      <c r="C27" s="6">
+        <v>245</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="4">
+        <v>291</v>
+      </c>
+      <c r="F27" s="6">
+        <v>433</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="4">
+        <v>80</v>
+      </c>
+      <c r="C28" s="6">
+        <v>109</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="4">
+        <v>50</v>
+      </c>
+      <c r="F28" s="6">
+        <v>87</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="4">
+        <v>40</v>
+      </c>
+      <c r="I28" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="20">
+        <f>SUM(B26:B29)</f>
+        <v>260</v>
+      </c>
+      <c r="C30" s="21">
+        <f>SUM(C26:C29)</f>
+        <v>354</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="20">
+        <f>SUM(E26:E29)</f>
+        <v>341</v>
+      </c>
+      <c r="F30" s="21">
+        <f>SUM(F26:F29)</f>
+        <v>520</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="20">
+        <f>SUM(H26:H29)</f>
+        <v>240</v>
+      </c>
+      <c r="I30" s="21">
+        <f>SUM(I26:I29)</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="23">
+        <v>219575</v>
+      </c>
+      <c r="C31" s="24">
+        <f>SUM(B31/1000)</f>
+        <v>219.57499999999999</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="23">
+        <v>715210</v>
+      </c>
+      <c r="F31" s="24">
+        <f>SUM(E31/1000)</f>
+        <v>715.21</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" s="23">
+        <v>273360</v>
+      </c>
+      <c r="I31" s="24">
+        <f>SUM(H31/1000)</f>
+        <v>273.36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="4">
-        <v>122</v>
-      </c>
-      <c r="C22" s="6">
-        <v>157</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="B32" s="26">
+        <v>167795</v>
+      </c>
+      <c r="C32" s="27">
+        <f>SUM(B32/1000)</f>
+        <v>167.79499999999999</v>
+      </c>
+      <c r="D32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="4">
-        <v>98</v>
-      </c>
-      <c r="F22" s="6">
-        <v>165</v>
-      </c>
-      <c r="G22" s="5" t="s">
+      <c r="E32" s="26">
+        <v>638700</v>
+      </c>
+      <c r="F32" s="27">
+        <f>SUM(E32/1000)</f>
+        <v>638.70000000000005</v>
+      </c>
+      <c r="G32" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="4">
-        <v>85</v>
-      </c>
-      <c r="I22" s="6">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="H32" s="26">
+        <v>214660</v>
+      </c>
+      <c r="I32" s="29">
+        <f>SUM(H32/1000)</f>
+        <v>214.66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="G33" s="4"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <f>SUM(B18+E18+H18+B30+E30+H30)</f>
+        <v>1902</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1">
+        <f>SUM(C18+F18+I18+C30+F30+I30)</f>
+        <v>2711</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="F38" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="37"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="6">
+        <v>2898</v>
+      </c>
+      <c r="F40" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="6">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="6">
+        <v>154</v>
+      </c>
+      <c r="F41" s="40"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="21">
-        <f>SUM(B22:B23)</f>
-        <v>122</v>
-      </c>
-      <c r="C24" s="22">
-        <f>SUM(C22:C23)</f>
-        <v>157</v>
-      </c>
-      <c r="D24" s="20" t="s">
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="9">
+        <f>SUM(D40:D41)</f>
+        <v>3052</v>
+      </c>
+      <c r="F42" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="21">
-        <f>SUM(E22:E23)</f>
-        <v>98</v>
-      </c>
-      <c r="F24" s="22">
-        <f>SUM(F22:F23)</f>
-        <v>165</v>
-      </c>
-      <c r="G24" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H24" s="21">
-        <f>SUM(H22:H23)</f>
-        <v>85</v>
-      </c>
-      <c r="I24" s="22">
-        <f>SUM(I22:I23)</f>
-        <v>139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="24">
-        <v>167795</v>
-      </c>
-      <c r="C25" s="25">
-        <f>SUM(B25/1000)</f>
-        <v>167.79499999999999</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="24">
-        <v>638700</v>
-      </c>
-      <c r="F25" s="25">
-        <f>SUM(E25/1000)</f>
-        <v>638.70000000000005</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" s="24">
-        <v>214660</v>
-      </c>
-      <c r="I25" s="25">
-        <f>SUM(H25/1000)</f>
-        <v>214.66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="27">
-        <v>253135</v>
-      </c>
-      <c r="C26" s="28">
-        <f>SUM(B26/1000)</f>
-        <v>253.13499999999999</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="27">
-        <v>665900</v>
-      </c>
-      <c r="F26" s="28">
-        <f>SUM(E26/1000)</f>
-        <v>665.9</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="27">
-        <v>223820</v>
-      </c>
-      <c r="I26" s="30">
-        <f>SUM(H26/1000)</f>
-        <v>223.82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="9">
+        <f>SUM(I40:I41)</f>
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B29" s="1">
-        <f>SUM(B14+E14+H14+B24+E24+H24)</f>
-        <v>755</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <f>SUM(C14+F14+I14+C24+F24+I24)</f>
-        <v>1084</v>
-      </c>
-      <c r="E29" s="1" t="s">
+      <c r="D45" s="1">
+        <f>SUM(D42+I42)</f>
+        <v>5529</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="F32" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="35"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="6">
-        <v>162</v>
-      </c>
-      <c r="F34" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="6">
-        <v>1883</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="48"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="6"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="45"/>
-      <c r="C36" s="45"/>
-      <c r="D36" s="9">
-        <f>SUM(D34:D35)</f>
-        <v>162</v>
-      </c>
-      <c r="F36" s="44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="45"/>
-      <c r="H36" s="45"/>
-      <c r="I36" s="9">
-        <f>SUM(I34:I35)</f>
-        <v>1883</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
+  <mergeCells count="24">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.45" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
